--- a/Construction/Databases/Database Final.xlsx
+++ b/Construction/Databases/Database Final.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fb/Dropbox/Datamatiker/Projects/1ex/examProject/Construction/Databases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27280" windowHeight="16360"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="1NF" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="2NF" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="3NF" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Normalisation" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Data" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Data2" sheetId="6" r:id="rId8"/>
+    <sheet name="1NF" sheetId="1" r:id="rId1"/>
+    <sheet name="2NF" sheetId="2" r:id="rId2"/>
+    <sheet name="3NF" sheetId="3" r:id="rId3"/>
+    <sheet name="Normalisation" sheetId="4" r:id="rId4"/>
+    <sheet name="Data" sheetId="5" r:id="rId5"/>
+    <sheet name="Data2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="79">
   <si>
     <t>A table is in first normal form if:</t>
   </si>
@@ -214,9 +227,6 @@
   </si>
   <si>
     <t>jbdb@suicidewatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>OSCA</t>
@@ -261,19 +271,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="&quot; &quot;&quot;$&quot;&quot; &quot;#,##0.00&quot; &quot;;&quot; &quot;&quot;$&quot;&quot; (&quot;#,##0.00&quot;)&quot;;&quot; &quot;&quot;$&quot;&quot;- &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot; &quot;&quot;$&quot;&quot; &quot;#,##0&quot; &quot;;&quot; &quot;&quot;$&quot;&quot; (&quot;#,##0&quot;)&quot;;&quot; &quot;&quot;$&quot;&quot;- &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="166" formatCode="&quot;  &quot;#,##0.00&quot; &quot;;&quot;  (&quot;#,##0.00&quot;)&quot;;&quot; - &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="167" formatCode="&quot;  &quot;#,##0&quot; &quot;;&quot;  (&quot;#,##0&quot;)&quot;;&quot; - &quot;;&quot; &quot;@&quot; &quot;"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="10.0"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -281,7 +303,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -314,6 +336,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -324,6 +347,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -332,6 +356,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -342,6 +367,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -350,6 +376,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -358,6 +385,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -372,6 +400,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -382,6 +411,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -390,6 +420,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -400,183 +431,418 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="52">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <alignment/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="34.86"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="3" max="256" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -584,7 +850,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -592,7 +859,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -600,7 +868,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -609,26 +878,35 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="61.0"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="256" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -636,7 +914,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -644,7 +923,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -652,7 +933,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -661,26 +943,34 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="62.0"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="3" max="256" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -688,7 +978,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -696,7 +987,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -704,7 +997,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -713,1007 +1007,1174 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="32.29"/>
-    <col customWidth="1" min="9" max="9" width="32.29"/>
-    <col customWidth="1" min="13" max="13" width="17.29"/>
-    <col customWidth="1" min="14" max="14" width="32.43"/>
-    <col customWidth="1" min="19" max="19" width="30.71"/>
+    <col min="1" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="10" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="32.5" customWidth="1"/>
+    <col min="15" max="18" width="14.5" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" customWidth="1"/>
+    <col min="20" max="256" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="10"/>
+      <c r="P2" s="1"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="13"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="25" t="s">
+      <c r="O3" s="22"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="26"/>
-    </row>
-    <row r="4">
+      <c r="T3" s="25"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34" t="s">
+      <c r="O4" s="22"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="26"/>
-    </row>
-    <row r="5">
+      <c r="T4" s="25"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="30" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="32" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="35" t="s">
+      <c r="O5" s="22"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="26"/>
-    </row>
-    <row r="6">
+      <c r="T5" s="25"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="32" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="35" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="26"/>
-    </row>
-    <row r="7">
+      <c r="T6" s="25"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="30" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="32" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="35" t="s">
+      <c r="O7" s="22"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="35" t="s">
+      <c r="S7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="26"/>
-    </row>
-    <row r="8">
+      <c r="T7" s="25"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
       <c r="B8" s="14"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="30" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32" t="s">
+      <c r="J8" s="19"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="35" t="s">
+      <c r="O8" s="22"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="26"/>
-    </row>
-    <row r="9">
+      <c r="T8" s="25"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="37" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="30" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="32" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="35" t="s">
+      <c r="O9" s="22"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="26"/>
-    </row>
-    <row r="10">
+      <c r="T9" s="25"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="23"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="26"/>
-    </row>
-    <row r="11">
+      <c r="E10" s="16"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="25"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="37" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="30" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="32" t="s">
+      <c r="J11" s="19"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="23"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="35" t="s">
+      <c r="O11" s="22"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="35" t="s">
+      <c r="S11" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="26"/>
-    </row>
-    <row r="12">
+      <c r="T11" s="25"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="36" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32" t="s">
+      <c r="J12" s="19"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="23"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="35" t="s">
+      <c r="O12" s="22"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="T12" s="26"/>
-    </row>
-    <row r="13">
+      <c r="T12" s="25"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="37" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="36" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="32" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="23"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="35" t="s">
+      <c r="O13" s="22"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="26"/>
-    </row>
-    <row r="14">
+      <c r="T13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="36" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="32" t="s">
+      <c r="J14" s="19"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="23"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="35" t="s">
+      <c r="O14" s="22"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="T14" s="26"/>
-    </row>
-    <row r="15">
+      <c r="T14" s="25"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="20"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="23"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="26"/>
-    </row>
-    <row r="16">
+      <c r="E15" s="16"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="25"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="30" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="32" t="s">
+      <c r="J16" s="19"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="23"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="35" t="s">
+      <c r="O16" s="22"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="S16" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="T16" s="26"/>
-    </row>
-    <row r="17">
+      <c r="T16" s="25"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="37" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="32" t="s">
+      <c r="J17" s="19"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="35" t="s">
+      <c r="O17" s="22"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="T17" s="26"/>
-    </row>
-    <row r="18">
+      <c r="T17" s="25"/>
+    </row>
+    <row r="18" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="23"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="26"/>
-    </row>
-    <row r="19">
+      <c r="E18" s="16"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="25"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="30" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="32" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="32" t="s">
+      <c r="N19" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="23"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="35" t="s">
+      <c r="O19" s="22"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="S19" s="35" t="s">
+      <c r="S19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="T19" s="26"/>
-    </row>
-    <row r="20">
+      <c r="T19" s="25"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="37" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="36" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="32" t="s">
+      <c r="J20" s="19"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="23"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="35" t="s">
+      <c r="O20" s="22"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="T20" s="26"/>
-    </row>
-    <row r="21">
+      <c r="T20" s="25"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="36" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32" t="s">
+      <c r="J21" s="19"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="23"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="35" t="s">
+      <c r="O21" s="22"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="T21" s="26"/>
-    </row>
-    <row r="22">
+      <c r="T21" s="25"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="23"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="26"/>
-    </row>
-    <row r="23">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="25"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="30" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="32" t="s">
+      <c r="J23" s="19"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="32" t="s">
+      <c r="N23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="23"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="35" t="s">
+      <c r="O23" s="22"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="S23" s="35" t="s">
+      <c r="S23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="26"/>
-    </row>
-    <row r="24">
+      <c r="T23" s="25"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="30" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="36" t="s">
+      <c r="I24" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="32" t="s">
+      <c r="J24" s="19"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N24" s="32" t="s">
+      <c r="N24" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="O24" s="23"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="35" t="s">
+      <c r="O24" s="22"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="S24" s="35" t="s">
+      <c r="S24" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="T24" s="26"/>
-    </row>
-    <row r="25">
+      <c r="T24" s="25"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="41" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="32" t="s">
+      <c r="J25" s="19"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="23"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="35" t="s">
+      <c r="O25" s="22"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="T25" s="26"/>
-    </row>
-    <row r="26">
+      <c r="T25" s="25"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="23"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="26"/>
-    </row>
-    <row r="27">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="25"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="42" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I27" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="32" t="s">
+      <c r="J27" s="19"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="32" t="s">
+      <c r="N27" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="23"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="35" t="s">
+      <c r="O27" s="22"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="35" t="s">
+      <c r="S27" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="T27" s="26"/>
-    </row>
-    <row r="28">
+      <c r="T27" s="25"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="42" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="32" t="s">
+      <c r="J28" s="19"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N28" s="32" t="s">
+      <c r="N28" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="35" t="s">
+      <c r="O28" s="22"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="S28" s="35" t="s">
+      <c r="S28" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="T28" s="26"/>
-    </row>
-    <row r="29">
+      <c r="T28" s="25"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="42" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="32" t="s">
+      <c r="J29" s="19"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="23"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="35" t="s">
+      <c r="O29" s="22"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T29" s="26"/>
-    </row>
-    <row r="30">
+      <c r="T29" s="25"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="20"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="23"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="26"/>
-    </row>
-    <row r="31">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="25"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="42" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="I31" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="32" t="s">
+      <c r="J31" s="19"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N31" s="32" t="s">
+      <c r="N31" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="23"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="35" t="s">
+      <c r="O31" s="22"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="S31" s="35" t="s">
+      <c r="S31" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="T31" s="26"/>
-    </row>
-    <row r="32">
+      <c r="T31" s="25"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="42" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="42" t="s">
+      <c r="I32" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="20"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="32" t="s">
+      <c r="J32" s="19"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N32" s="32" t="s">
+      <c r="N32" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="O32" s="23"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="35" t="s">
+      <c r="O32" s="22"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="S32" s="35" t="s">
+      <c r="S32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="T32" s="26"/>
-    </row>
-    <row r="33">
+      <c r="T32" s="25"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="42" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="32" t="s">
+      <c r="J33" s="19"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O33" s="23"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="35" t="s">
+      <c r="O33" s="22"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="T33" s="26"/>
-    </row>
-    <row r="34">
+      <c r="T33" s="25"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="17"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="20"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="23"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="26"/>
-    </row>
-    <row r="35">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="25"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="20"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="23"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="26"/>
-    </row>
-    <row r="36">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="25"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="17"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="20"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="23"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="26"/>
-    </row>
-    <row r="37">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="25"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="20"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="23"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="26"/>
-    </row>
-    <row r="38">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="25"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="17"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="20"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="23"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="26"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="43"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="48"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="51"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="54"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="25"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="48"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.57"/>
-    <col customWidth="1" min="2" max="3" width="27.29"/>
-    <col customWidth="1" min="4" max="4" width="30.71"/>
-    <col customWidth="1" min="5" max="5" width="29.29"/>
-    <col customWidth="1" min="6" max="6" width="27.71"/>
-    <col customWidth="1" min="7" max="7" width="27.29"/>
-    <col customWidth="1" min="8" max="9" width="32.29"/>
-    <col customWidth="1" min="10" max="10" width="27.29"/>
-    <col customWidth="1" min="11" max="11" width="29.43"/>
-    <col customWidth="1" min="12" max="12" width="29.29"/>
-    <col customWidth="1" min="13" max="13" width="25.43"/>
-    <col customWidth="1" min="14" max="15" width="30.86"/>
-    <col customWidth="1" min="16" max="16" width="21.43"/>
-    <col customWidth="1" min="17" max="17" width="29.43"/>
-    <col customWidth="1" min="18" max="18" width="20.29"/>
-    <col customWidth="1" min="19" max="19" width="22.86"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="9" width="32.33203125" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" customWidth="1"/>
+    <col min="11" max="11" width="29.5" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.5" customWidth="1"/>
+    <col min="14" max="15" width="30.83203125" customWidth="1"/>
+    <col min="16" max="16" width="21.5" customWidth="1"/>
+    <col min="17" max="17" width="29.5" customWidth="1"/>
+    <col min="18" max="18" width="20.33203125" customWidth="1"/>
+    <col min="19" max="19" width="22.83203125" customWidth="1"/>
+    <col min="20" max="256" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1726,50 +2187,51 @@
       <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1780,7 +2242,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>44</v>
@@ -1789,10 +2251,10 @@
         <v>45</v>
       </c>
       <c r="H3" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="I3" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>46</v>
@@ -1807,10 +2269,10 @@
         <v>48</v>
       </c>
       <c r="N3" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="O3" s="1">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>49</v>
@@ -1819,13 +2281,14 @@
         <v>1</v>
       </c>
       <c r="R3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
@@ -1836,7 +2299,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>44</v>
@@ -1845,10 +2308,10 @@
         <v>45</v>
       </c>
       <c r="H4" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="I4" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>46</v>
@@ -1863,10 +2326,10 @@
         <v>52</v>
       </c>
       <c r="N4" s="1">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="O4" s="1">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>53</v>
@@ -1875,13 +2338,14 @@
         <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
@@ -1892,7 +2356,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>55</v>
@@ -1901,10 +2365,10 @@
         <v>56</v>
       </c>
       <c r="H5" s="1">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="I5" s="1">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>57</v>
@@ -1919,9 +2383,9 @@
         <v>59</v>
       </c>
       <c r="N5" s="1">
-        <v>765.0</v>
-      </c>
-      <c r="O5" s="56" t="s">
+        <v>765</v>
+      </c>
+      <c r="O5" s="50" t="s">
         <v>60</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -1931,13 +2395,14 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1948,7 +2413,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>55</v>
@@ -1957,10 +2422,10 @@
         <v>56</v>
       </c>
       <c r="H6" s="1">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="I6" s="1">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>57</v>
@@ -1975,10 +2440,10 @@
         <v>64</v>
       </c>
       <c r="N6" s="1">
-        <v>888.0</v>
+        <v>888</v>
       </c>
       <c r="O6" s="1">
-        <v>999.0</v>
+        <v>999</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>65</v>
@@ -1987,16 +2452,14 @@
         <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
@@ -2007,7 +2470,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>55</v>
@@ -2016,10 +2479,10 @@
         <v>56</v>
       </c>
       <c r="H7" s="1">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="I7" s="1">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>57</v>
@@ -2034,10 +2497,10 @@
         <v>52</v>
       </c>
       <c r="N7" s="1">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="O7" s="1">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>53</v>
@@ -2046,15 +2509,16 @@
         <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
@@ -2063,7 +2527,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>44</v>
@@ -2072,10 +2536,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="I8" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>46</v>
@@ -2090,9 +2554,9 @@
         <v>59</v>
       </c>
       <c r="N8" s="1">
-        <v>765.0</v>
-      </c>
-      <c r="O8" s="56" t="s">
+        <v>765</v>
+      </c>
+      <c r="O8" s="50" t="s">
         <v>60</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -2102,18 +2566,20 @@
         <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="57" t="s">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2124,28 +2590,30 @@
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="G11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
@@ -2156,14 +2624,15 @@
         <v>43</v>
       </c>
       <c r="E12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="1">
-        <v>1.0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>44</v>
       </c>
@@ -2177,7 +2646,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
@@ -2188,14 +2658,15 @@
         <v>43</v>
       </c>
       <c r="E13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="1">
-        <v>2.0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>55</v>
       </c>
@@ -2209,9 +2680,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>42</v>
@@ -2220,48 +2692,54 @@
         <v>43</v>
       </c>
       <c r="E14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="55" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="J16" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="59" t="s">
+      <c r="K16" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
       <c r="B17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>47</v>
       </c>
@@ -2271,23 +2749,26 @@
       <c r="G17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="J17" s="58" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="K17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
       <c r="B18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,23 +2778,26 @@
       <c r="G18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="J18" s="58" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="K18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
       <c r="B19" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>58</v>
       </c>
@@ -2323,17 +2807,22 @@
       <c r="G19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="J19" s="58" t="s">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="58" t="b">
+      <c r="K19" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>63</v>
       </c>
@@ -2343,171 +2832,194 @@
       <c r="G20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="J20" s="58" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="58" t="b">
+      <c r="K20" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="57"/>
-      <c r="I21" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="J21" s="58" t="s">
+    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="55" t="s">
+      <c r="K21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="D22" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="55" t="s">
+      <c r="G22" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="J22" s="58" t="s">
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="K22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1">
-        <v>222.0</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23" s="1">
-        <v>112.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>444.0</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H24" s="1">
-        <v>113.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1">
-        <v>333.0</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" s="1">
-        <v>332.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1">
-        <v>555.0</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" s="1">
-        <v>445.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1">
-        <v>765.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1">
-        <v>888.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1">
-        <v>999.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -2521,16 +3033,17 @@
         <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="G32" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,16 +3054,17 @@
         <v>43</v>
       </c>
       <c r="E33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G33" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>54</v>
       </c>
@@ -2561,18 +3075,19 @@
         <v>43</v>
       </c>
       <c r="E34" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G34" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -2581,30 +3096,33 @@
         <v>43</v>
       </c>
       <c r="E35" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G35" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="55" t="s">
+      <c r="D37" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>44</v>
       </c>
@@ -2618,7 +3136,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
@@ -2632,187 +3151,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" s="58" t="s">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="D41" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="55" t="s">
+      <c r="H41" s="49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="C42" s="58" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="58" t="b">
-        <v>1</v>
-      </c>
+      <c r="D42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H42" s="1">
-        <v>222.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="C43" s="58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="58" t="b">
-        <v>1</v>
-      </c>
+      <c r="D43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H43" s="1">
-        <v>444.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="C44" s="58" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="58" t="b">
+      <c r="D44" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H44" s="1">
-        <v>333.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="C45" s="58" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="58" t="b">
+      <c r="D45" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H45" s="1">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="C46" s="58" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="58" t="b">
-        <v>1</v>
-      </c>
+      <c r="D46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H46" s="1">
-        <v>765.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="C47" s="58" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="58" t="b">
-        <v>1</v>
-      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H47" s="1">
-        <v>888.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H48" s="1">
-        <v>999.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="55" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="C50" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="55" t="s">
+      <c r="E50" s="1"/>
+      <c r="F50" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="H50" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="1">
-        <v>112.0</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
         <v>47</v>
       </c>
@@ -2823,16 +3367,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D52" s="1">
-        <v>113.0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,16 +3389,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="1">
-        <v>332.0</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
         <v>58</v>
       </c>
@@ -2863,16 +3411,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="1">
-        <v>445.0</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
         <v>63</v>
       </c>
@@ -2883,53 +3433,65 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="55" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
+      <c r="B56" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="58"/>
-    </row>
-    <row r="57">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="1"/>
       <c r="B57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="1"/>
       <c r="B58" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
       <c r="B59" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-    </row>
-    <row r="60">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -2943,16 +3505,17 @@
         <v>21</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="G61" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G61" s="55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>41</v>
       </c>
@@ -2963,16 +3526,17 @@
         <v>43</v>
       </c>
       <c r="E62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G62" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>54</v>
       </c>
@@ -2983,18 +3547,19 @@
         <v>43</v>
       </c>
       <c r="E63" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G63" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>42</v>
@@ -3003,30 +3568,33 @@
         <v>43</v>
       </c>
       <c r="E64" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G64" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" s="55" t="s">
+      <c r="D66" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>44</v>
       </c>
@@ -3040,7 +3608,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>55</v>
       </c>
@@ -3054,187 +3623,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="B70" s="58" t="s">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="D70" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F70" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="H70" s="55" t="s">
+      <c r="H70" s="49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="71">
-      <c r="B71" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="C71" s="58" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D71" s="58" t="b">
-        <v>1</v>
-      </c>
+      <c r="D71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H71" s="1">
-        <v>222.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="C72" s="58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D72" s="58" t="b">
-        <v>1</v>
-      </c>
+      <c r="D72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H72" s="1">
-        <v>444.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="C73" s="58" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="58" t="b">
+      <c r="D73" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H73" s="1">
-        <v>333.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="C74" s="58" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D74" s="58" t="b">
+      <c r="D74" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H74" s="1">
-        <v>555.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="58">
-        <v>2.0</v>
-      </c>
-      <c r="C75" s="58" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D75" s="58" t="b">
-        <v>1</v>
-      </c>
+      <c r="D75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H75" s="1">
-        <v>765.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="C76" s="58" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="58" t="b">
-        <v>1</v>
-      </c>
+      <c r="D76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H76" s="1">
-        <v>888.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H77" s="1">
-        <v>999.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="55" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79" s="1"/>
+      <c r="B79" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D79" s="55" t="s">
+      <c r="C79" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F79" s="55" t="s">
+      <c r="E79" s="1"/>
+      <c r="F79" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G79" s="55" t="s">
+      <c r="G79" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H79" s="55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="H79" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="1">
-        <v>112.0</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
         <v>47</v>
       </c>
@@ -3245,16 +3839,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="1">
-        <v>113.0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
         <v>51</v>
       </c>
@@ -3265,16 +3861,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82" s="1">
-        <v>332.0</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
         <v>58</v>
       </c>
@@ -3285,16 +3883,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="1">
-        <v>445.0</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
         <v>63</v>
       </c>
@@ -3305,91 +3905,100 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84">
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="55" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" s="1"/>
+      <c r="B85" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D85" s="58"/>
-    </row>
-    <row r="86">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A86" s="1"/>
       <c r="B86" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A87" s="1"/>
       <c r="B87" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A88" s="1"/>
       <c r="B88" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:X2 B11:G11 I11:L11 B16:C16 E16:G16 I16:K16 B22:D22 F22:H22 B32:G32 B37:E37 B41:D41 F41:H41 B50:D50 F50:H50 B56:C56 F59:H59 B61:G61 B66:E66 B70:D70 F70:H70 B79:D79 F79:H79 B85:C85 F88:H88">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="12.43"/>
-    <col customWidth="1" min="3" max="3" width="15.86"/>
-    <col customWidth="1" min="4" max="4" width="15.29"/>
-    <col customWidth="1" min="5" max="5" width="8.86"/>
-    <col customWidth="1" min="6" max="6" width="12.43"/>
-    <col customWidth="1" min="7" max="7" width="15.86"/>
-    <col customWidth="1" min="8" max="8" width="15.29"/>
-    <col customWidth="1" min="9" max="9" width="8.86"/>
-    <col customWidth="1" min="10" max="11" width="27.29"/>
-    <col customWidth="1" min="12" max="13" width="32.29"/>
-    <col customWidth="1" min="14" max="14" width="22.86"/>
-    <col customWidth="1" min="15" max="15" width="29.29"/>
-    <col customWidth="1" min="16" max="16" width="25.86"/>
-    <col customWidth="1" min="17" max="17" width="25.43"/>
-    <col customWidth="1" min="18" max="19" width="30.86"/>
-    <col customWidth="1" min="20" max="20" width="21.43"/>
-    <col customWidth="1" min="21" max="21" width="29.43"/>
-    <col customWidth="1" min="22" max="22" width="25.86"/>
-    <col customWidth="1" min="23" max="23" width="25.43"/>
-    <col customWidth="1" min="24" max="25" width="30.86"/>
-    <col customWidth="1" min="26" max="26" width="21.43"/>
-    <col customWidth="1" min="27" max="27" width="29.43"/>
-    <col customWidth="1" min="28" max="28" width="20.29"/>
-    <col customWidth="1" min="29" max="29" width="22.86"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="11" width="27.33203125" customWidth="1"/>
+    <col min="12" max="13" width="32.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" customWidth="1"/>
+    <col min="16" max="16" width="25.83203125" customWidth="1"/>
+    <col min="17" max="17" width="25.5" customWidth="1"/>
+    <col min="18" max="19" width="30.83203125" customWidth="1"/>
+    <col min="20" max="20" width="21.5" customWidth="1"/>
+    <col min="21" max="21" width="29.5" customWidth="1"/>
+    <col min="22" max="22" width="25.83203125" customWidth="1"/>
+    <col min="23" max="23" width="25.5" customWidth="1"/>
+    <col min="24" max="25" width="30.83203125" customWidth="1"/>
+    <col min="26" max="26" width="21.5" customWidth="1"/>
+    <col min="27" max="27" width="29.5" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" customWidth="1"/>
+    <col min="29" max="29" width="22.83203125" customWidth="1"/>
+    <col min="30" max="256" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3414,68 +4023,69 @@
       <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="L2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="N2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="55" t="s">
+      <c r="V2" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="55" t="s">
+      <c r="W2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="55" t="s">
+      <c r="X2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="55" t="s">
+      <c r="Y2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="55" t="s">
+      <c r="Z2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="55" t="s">
+      <c r="AA2" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="55" t="s">
+      <c r="AB2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="55" t="s">
+      <c r="AC2" s="49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -3486,10 +4096,10 @@
         <v>43</v>
       </c>
       <c r="E3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>42</v>
@@ -3498,7 +4108,7 @@
         <v>43</v>
       </c>
       <c r="I3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>44</v>
@@ -3507,10 +4117,10 @@
         <v>45</v>
       </c>
       <c r="L3" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="M3" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>46</v>
@@ -3525,10 +4135,10 @@
         <v>48</v>
       </c>
       <c r="R3" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="S3" s="1">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>49</v>
@@ -3543,10 +4153,10 @@
         <v>52</v>
       </c>
       <c r="X3" s="1">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="Y3" s="1">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>53</v>
@@ -3555,13 +4165,14 @@
         <v>1</v>
       </c>
       <c r="AB3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3569,11 +4180,8 @@
       <c r="F4" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:AC2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>